--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,187 +49,220 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>paper</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
   </si>
   <si>
     <t>food</t>
@@ -590,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6506849315068494</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,31 +710,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,28 +763,28 @@
         <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8803418803418803</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.248062015503876</v>
+        <v>0.2616279069767442</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,303 +810,279 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.875</v>
+      </c>
+      <c r="L5">
+        <v>105</v>
+      </c>
+      <c r="M5">
+        <v>105</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8727272727272727</v>
-      </c>
-      <c r="L5">
-        <v>96</v>
-      </c>
-      <c r="M5">
-        <v>98</v>
-      </c>
-      <c r="N5">
-        <v>0.98</v>
-      </c>
-      <c r="O5">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.0119142176330421</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>619</v>
-      </c>
-      <c r="E6">
-        <v>0.95</v>
-      </c>
-      <c r="F6">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2488</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8661417322834646</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8375</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8222222222222222</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7721518987341772</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7192982456140351</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7092198581560284</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7029702970297029</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6896551724137931</v>
+        <v>0.75625</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="N13">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1085,47 +1094,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6269113149847095</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L16">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.5957446808510638</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1137,177 +1146,177 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5564304461942258</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>169</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5373134328358209</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.53125</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L20">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="M20">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="L21">
         <v>31</v>
       </c>
-      <c r="K21">
-        <v>0.5227272727272727</v>
-      </c>
-      <c r="L21">
-        <v>46</v>
-      </c>
       <c r="M21">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.4113924050632912</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.3956043956043956</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1319,99 +1328,99 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.3584905660377358</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L25">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.343065693430657</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L26">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>270</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.3209876543209876</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.3130434782608696</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1423,73 +1432,73 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.3052631578947368</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.2611464968152866</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.2551020408163265</v>
+        <v>0.3581395348837209</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1501,177 +1510,177 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.2518518518518518</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.248062015503876</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L34">
         <v>44</v>
       </c>
-      <c r="K34">
-        <v>0.2452830188679245</v>
-      </c>
-      <c r="L34">
-        <v>52</v>
-      </c>
       <c r="M34">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.2451456310679612</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L35">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>311</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2406015037593985</v>
+        <v>0.3128834355828221</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.2363636363636364</v>
+        <v>0.2977099236641221</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2307692307692308</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1683,47 +1692,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2164948453608248</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="L39">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>380</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2130434782608696</v>
+        <v>0.2773722627737226</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1735,215 +1744,215 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2103487064116985</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="L41">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>702</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2061068702290076</v>
+        <v>0.270440251572327</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2054794520547945</v>
+        <v>0.2564935064935065</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>116</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2032786885245902</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2012383900928792</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="L45">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>258</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1994134897360704</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L46">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>76</v>
-      </c>
-      <c r="N46">
-        <v>0.89</v>
-      </c>
-      <c r="O46">
-        <v>0.11</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>273</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1919642857142857</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L47">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>724</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1914202144946376</v>
+        <v>0.2427884615384615</v>
       </c>
       <c r="L48">
-        <v>589</v>
+        <v>101</v>
       </c>
       <c r="M48">
-        <v>619</v>
+        <v>101</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2488</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1951,13 +1960,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1878787878787879</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1969,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1977,25 +1986,25 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1819038642789821</v>
+        <v>0.2366255144032922</v>
       </c>
       <c r="L50">
-        <v>386</v>
+        <v>115</v>
       </c>
       <c r="M50">
-        <v>407</v>
+        <v>115</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1736</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2003,25 +2012,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1752212389380531</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="L51">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M51">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>466</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2029,25 +2038,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1658914728682171</v>
+        <v>0.2263610315186246</v>
       </c>
       <c r="L52">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M52">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>538</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2055,25 +2064,25 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1576086956521739</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2081,25 +2090,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1574468085106383</v>
+        <v>0.2232415902140673</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2107,13 +2116,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1460674157303371</v>
+        <v>0.2158836689038031</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2125,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>228</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2133,25 +2142,25 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1348837209302326</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L56">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>744</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2159,25 +2168,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1116071428571429</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2185,25 +2194,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1094386955158357</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="L58">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2840</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2211,13 +2220,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1067615658362989</v>
+        <v>0.2031076581576027</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2229,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2237,25 +2246,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.08138528138528138</v>
+        <v>0.2</v>
       </c>
       <c r="L60">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1061</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2263,25 +2272,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.07393715341959335</v>
+        <v>0.1997200186654223</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>428</v>
       </c>
       <c r="M61">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="N61">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>501</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2289,25 +2298,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.07002801120448179</v>
+        <v>0.1992275506919858</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>619</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>619</v>
       </c>
       <c r="N62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>332</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2315,25 +2324,311 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.04597701149425287</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M63">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>913</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="L64">
+        <v>45</v>
+      </c>
+      <c r="M64">
+        <v>45</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <v>0.1676923076923077</v>
+      </c>
+      <c r="L65">
+        <v>109</v>
+      </c>
+      <c r="M65">
+        <v>109</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="L66">
+        <v>25</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67">
+        <v>0.1476355247981546</v>
+      </c>
+      <c r="L67">
+        <v>128</v>
+      </c>
+      <c r="M67">
+        <v>128</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68">
+        <v>0.119650109340831</v>
+      </c>
+      <c r="L68">
+        <v>383</v>
+      </c>
+      <c r="M68">
+        <v>383</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69">
+        <v>0.1145374449339207</v>
+      </c>
+      <c r="L69">
+        <v>26</v>
+      </c>
+      <c r="M69">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70">
+        <v>0.103202846975089</v>
+      </c>
+      <c r="L70">
+        <v>29</v>
+      </c>
+      <c r="M70">
+        <v>29</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71">
+        <v>0.09388458225667529</v>
+      </c>
+      <c r="L71">
+        <v>109</v>
+      </c>
+      <c r="M71">
+        <v>109</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K72">
+        <v>0.08496732026143791</v>
+      </c>
+      <c r="L72">
+        <v>26</v>
+      </c>
+      <c r="M72">
+        <v>26</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K73">
+        <v>0.07706422018348624</v>
+      </c>
+      <c r="L73">
+        <v>42</v>
+      </c>
+      <c r="M73">
+        <v>42</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K74">
+        <v>0.05578512396694215</v>
+      </c>
+      <c r="L74">
+        <v>54</v>
+      </c>
+      <c r="M74">
+        <v>54</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
